--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>apart</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>paid</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>tried</t>
   </si>
   <si>
     <t>guess</t>
@@ -85,220 +91,223 @@
     <t>pay</t>
   </si>
   <si>
-    <t>tried</t>
+    <t>light</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>paid</t>
+    <t>half</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>rip</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
+    <t>part</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>within</t>
+    <t>looked</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>ball</t>
-  </si>
-  <si>
     <t>doll</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>never</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>came</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>together</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>really</t>
   </si>
   <si>
     <t>get</t>
@@ -307,58 +316,64 @@
     <t>bought</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>expansion</t>
   </si>
   <si>
-    <t>blast</t>
+    <t>elf</t>
   </si>
   <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>elf</t>
+    <t>love</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>love</t>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>wonderful</t>
@@ -367,49 +382,61 @@
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>wait</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>everyone</t>
   </si>
   <si>
     <t>ages</t>
   </si>
   <si>
-    <t>game</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>play</t>
@@ -773,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +869,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.972972972972973</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K3">
-        <v>0.6666666666666666</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -884,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -892,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9577464788732394</v>
+        <v>0.9527027027027027</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K4">
-        <v>0.6615384615384615</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -934,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -942,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9271844660194175</v>
+        <v>0.9368932038834952</v>
       </c>
       <c r="C5">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K5">
-        <v>0.660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -984,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,13 +1019,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9193548387096774</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C6">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K6">
-        <v>0.5844155844155844</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1034,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1042,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9142857142857143</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1060,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K7">
-        <v>0.5161290322580645</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K8">
-        <v>0.4893617021276596</v>
+        <v>0.53125</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1134,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1142,13 +1169,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8870967741935484</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1160,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K9">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1192,13 +1219,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8842105263157894</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C10">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K10">
-        <v>0.4545454545454545</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1234,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1242,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8695652173913043</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K11">
-        <v>0.4375</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.868421052631579</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K12">
-        <v>0.4356846473029046</v>
+        <v>0.4375</v>
       </c>
       <c r="L12">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>272</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.828125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1360,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K13">
-        <v>0.4107142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1392,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1410,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K14">
-        <v>0.390625</v>
+        <v>0.3921161825726141</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1434,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>39</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1442,13 +1469,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7265625</v>
+        <v>0.7421875</v>
       </c>
       <c r="C15">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1460,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K15">
-        <v>0.3730886850152905</v>
+        <v>0.3873744619799139</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1484,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>205</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1513,16 +1540,16 @@
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K16">
-        <v>0.3701578192252511</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="L16">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1534,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>439</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,7 +1569,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6825396825396826</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="C17">
         <v>43</v>
@@ -1560,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17">
-        <v>0.3571428571428572</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1584,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1619,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6721311475409836</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,31 +1637,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18">
-        <v>0.3188405797101449</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>379</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>47</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1669,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6428571428571429</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,31 +1687,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K19">
-        <v>0.3095238095238095</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L19">
-        <v>377</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>379</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>841</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,13 +1719,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.631578947368421</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1710,31 +1737,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K20">
-        <v>0.303030303030303</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>115</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5892857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K21">
-        <v>0.2878787878787879</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1784,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1792,13 +1819,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5876288659793815</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22">
+        <v>0.2409638554216867</v>
+      </c>
+      <c r="L22">
         <v>40</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22">
-        <v>0.2534818941504178</v>
-      </c>
-      <c r="L22">
-        <v>91</v>
-      </c>
       <c r="M22">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>268</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,13 +1869,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5783132530120482</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1860,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K23">
-        <v>0.1847826086956522</v>
+        <v>0.2200557103064067</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1884,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>75</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1892,13 +1919,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5545023696682464</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C24">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1910,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K24">
-        <v>0.1709401709401709</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5454545454545454</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1963,28 +1990,28 @@
         <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K25">
-        <v>0.1707792207792208</v>
+        <v>0.16590761223162</v>
       </c>
       <c r="L25">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M25">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1277</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1992,13 +2019,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5333333333333333</v>
+        <v>0.5876777251184834</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K26">
-        <v>0.1688311688311688</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2034,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,13 +2069,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.524390243902439</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2060,31 +2087,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K27">
-        <v>0.1491228070175439</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="L27">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>970</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2092,13 +2119,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4927536231884058</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,31 +2137,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K28">
-        <v>0.1481481481481481</v>
+        <v>0.1495162708883025</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>161</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2142,13 +2169,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4814814814814815</v>
+        <v>0.55</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2160,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K29">
-        <v>0.12</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2184,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2192,7 +2219,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.475</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C30">
         <v>19</v>
@@ -2210,31 +2237,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K30">
-        <v>0.1188811188811189</v>
+        <v>0.128</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30">
         <v>17</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2242,13 +2269,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4666666666666667</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2260,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K31">
-        <v>0.1041666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>258</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2319,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.462962962962963</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2310,31 +2337,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K32">
-        <v>0.064343163538874</v>
+        <v>0.125</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>349</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2342,13 +2369,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4603174603174603</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2360,31 +2387,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K33">
-        <v>0.04810126582278481</v>
+        <v>0.12</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>376</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2392,13 +2419,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4579710144927536</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C34">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2410,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K34">
-        <v>0.04</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>0.9399999999999999</v>
@@ -2434,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>720</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2442,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4571428571428571</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2460,7 +2487,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35">
+        <v>0.1013986013986014</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,13 +2519,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4523809523809524</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2486,7 +2537,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>23</v>
+        <v>187</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36">
+        <v>0.09740259740259741</v>
+      </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2494,13 +2569,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4504950495049505</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="C37">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2512,7 +2587,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>111</v>
+        <v>50</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37">
+        <v>0.06091370558375635</v>
+      </c>
+      <c r="L37">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>0.92</v>
+      </c>
+      <c r="O37">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2520,25 +2619,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.439873417721519</v>
+        <v>0.4504950495049505</v>
       </c>
       <c r="C38">
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <v>91</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>111</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D38">
-        <v>139</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>177</v>
+      <c r="K38">
+        <v>0.06024096385542169</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2546,13 +2669,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4310344827586207</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2564,7 +2687,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39">
+        <v>0.05913978494623656</v>
+      </c>
+      <c r="L39">
+        <v>22</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>0.92</v>
+      </c>
+      <c r="O39">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2572,13 +2719,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4285714285714285</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2590,7 +2737,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40">
+        <v>0.04959785522788204</v>
+      </c>
+      <c r="L40">
+        <v>37</v>
+      </c>
+      <c r="M40">
+        <v>43</v>
+      </c>
+      <c r="N40">
+        <v>0.86</v>
+      </c>
+      <c r="O40">
+        <v>0.14</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>709</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2598,13 +2769,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.40625</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2616,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2624,13 +2795,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.375</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2642,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2650,13 +2821,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.375</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2668,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2676,13 +2847,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3648648648648649</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2694,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2702,13 +2873,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.319327731092437</v>
+        <v>0.375</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2720,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2754,13 +2925,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.305</v>
+        <v>0.3125</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2772,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>139</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2780,13 +2951,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2678571428571428</v>
+        <v>0.305</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2798,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2806,13 +2977,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2644927536231884</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C49">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2824,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>203</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2832,13 +3003,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2573099415204678</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D50">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2850,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>127</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2858,13 +3029,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2468354430379747</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="C51">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2876,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>238</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2884,13 +3055,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2459016393442623</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2902,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2910,25 +3081,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2441860465116279</v>
+        <v>0.2781065088757396</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2936,13 +3107,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2417582417582418</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2954,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2962,13 +3133,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2297297297297297</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2980,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2988,13 +3159,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.217948717948718</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3006,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3014,13 +3185,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2134831460674157</v>
+        <v>0.2404371584699453</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3032,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3040,25 +3211,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1976225854383358</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C58">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>540</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3066,13 +3237,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1967213114754098</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C59">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3084,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>147</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3092,13 +3263,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1960352422907489</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="C60">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3110,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>365</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3118,13 +3289,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1923076923076923</v>
+        <v>0.2193877551020408</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3136,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3144,13 +3315,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.188034188034188</v>
+        <v>0.2070484581497797</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3162,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>95</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3170,13 +3341,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1875</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3188,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3196,13 +3367,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1785714285714286</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3214,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>69</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3222,13 +3393,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1581632653061225</v>
+        <v>0.1875</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3240,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3248,25 +3419,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1559633027522936</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C66">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>92</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3274,25 +3445,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1494252873563219</v>
+        <v>0.1857355126300149</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>148</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3300,13 +3471,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1418918918918919</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3318,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3326,13 +3497,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.140625</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="C69">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3344,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3352,25 +3523,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.136986301369863</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="C70">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>315</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3378,13 +3549,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1337579617834395</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D71">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3396,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3404,25 +3575,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1329113924050633</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C72">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>274</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3430,13 +3601,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1285714285714286</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3448,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>122</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3456,25 +3627,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1267605633802817</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3482,13 +3653,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1266666666666667</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3500,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3508,13 +3679,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1259842519685039</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3526,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3534,25 +3705,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1202185792349727</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E77">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3560,25 +3731,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1095100864553314</v>
+        <v>0.116030534351145</v>
       </c>
       <c r="C78">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E78">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>309</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3586,25 +3757,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1075268817204301</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C79">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>249</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3612,13 +3783,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1063829787234043</v>
+        <v>0.111913357400722</v>
       </c>
       <c r="C80">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E80">
         <v>0.09</v>
@@ -3630,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>168</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3638,25 +3809,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09174311926605505</v>
+        <v>0.1095100864553314</v>
       </c>
       <c r="C81">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D81">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F81">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>594</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3664,25 +3835,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.08947368421052632</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3690,13 +3861,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08305647840531562</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C83">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3708,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>276</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3716,13 +3887,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0821529745042493</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="C84">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>0.06</v>
@@ -3734,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>324</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3742,25 +3913,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.07853403141361257</v>
+        <v>0.0951276102088167</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E85">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F85">
-        <v>0.9399999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>176</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3768,25 +3939,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.07459207459207459</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>397</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3794,25 +3965,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.07175925925925926</v>
+        <v>0.08757062146892655</v>
       </c>
       <c r="C87">
         <v>31</v>
       </c>
       <c r="D87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E87">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F87">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>401</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3820,25 +3991,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06854838709677419</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>231</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3846,25 +4017,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.06015037593984962</v>
+        <v>0.07723577235772358</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E89">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F89">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3872,25 +4043,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05607476635514019</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="C90">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D90">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E90">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F90">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>404</v>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3898,25 +4069,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.04790419161676647</v>
+        <v>0.06744186046511629</v>
       </c>
       <c r="C91">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D91">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E91">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F91">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>477</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3924,25 +4095,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.04326123128119801</v>
+        <v>0.06196581196581197</v>
       </c>
       <c r="C92">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E92">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="F92">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>575</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3950,25 +4121,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.04285714285714286</v>
+        <v>0.0585480093676815</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F93">
-        <v>0.9399999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>335</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3976,25 +4147,103 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.04060913705583756</v>
+        <v>0.05566600397614314</v>
       </c>
       <c r="C94">
+        <v>28</v>
+      </c>
+      <c r="D94">
+        <v>29</v>
+      </c>
+      <c r="E94">
+        <v>0.03</v>
+      </c>
+      <c r="F94">
+        <v>0.97</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.04071246819338423</v>
+      </c>
+      <c r="C95">
         <v>32</v>
       </c>
-      <c r="D94">
-        <v>38</v>
-      </c>
-      <c r="E94">
-        <v>0.16</v>
-      </c>
-      <c r="F94">
-        <v>0.84</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>756</v>
+      <c r="D95">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>0.2</v>
+      </c>
+      <c r="F95">
+        <v>0.8</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.02180232558139535</v>
+      </c>
+      <c r="C96">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>0.21</v>
+      </c>
+      <c r="F96">
+        <v>0.79</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.02148997134670487</v>
+      </c>
+      <c r="C97">
+        <v>15</v>
+      </c>
+      <c r="D97">
+        <v>22</v>
+      </c>
+      <c r="E97">
+        <v>0.32</v>
+      </c>
+      <c r="F97">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
